--- a/BlogUrenVerantwoordingTeam/BlogUrenVerantwoordingTeam.xlsx
+++ b/BlogUrenVerantwoordingTeam/BlogUrenVerantwoordingTeam.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsanders\Documents\GitHub\CeriosWebBlog\BlogUrenVerantwoordingTeam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgroothuis\Documents\GitHub\CeriosWebBlog\BlogUrenVerantwoordingTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>Totaal</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>*Werkwijze pull &gt; openen invoeren opslaan sluiten &gt; push, sanctie 1 rondje...</t>
+  </si>
+  <si>
+    <t>Studie</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1377,7 @@
   <dimension ref="A1:AF45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1649,7 +1652,7 @@
       </c>
       <c r="B10" s="109"/>
       <c r="C10" s="137">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="111"/>
       <c r="E10" s="111"/>
@@ -1674,7 +1677,7 @@
       </c>
       <c r="B11" s="109"/>
       <c r="C11" s="43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D11" s="111"/>
       <c r="E11" s="111"/>
@@ -1812,10 +1815,14 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+      <c r="A17" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="B17" s="77"/>
       <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
+      <c r="D17" s="35">
+        <v>8</v>
+      </c>
       <c r="E17" s="78"/>
       <c r="F17" s="93"/>
       <c r="G17" s="12"/>
@@ -1837,59 +1844,59 @@
         <v>2</v>
       </c>
       <c r="B18" s="125">
-        <f>SUM(B2:B17)</f>
+        <f t="shared" ref="B18:J18" si="0">SUM(B2:B17)</f>
         <v>0</v>
       </c>
       <c r="C18" s="123">
-        <f>SUM(C2:C17)</f>
-        <v>10.5</v>
+        <f t="shared" si="0"/>
+        <v>11.5</v>
       </c>
       <c r="D18" s="123">
-        <f>SUM(D2:D17)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="E18" s="123">
-        <f>SUM(E2:E17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="122">
-        <f>SUM(F2:F17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G18" s="19">
-        <f>SUM(G2:G17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="27">
-        <f>SUM(H2:H17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="125">
-        <f>SUM(I2:I17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J18" s="123">
-        <f>SUM(J2:J17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="123">
-        <f t="shared" ref="K18:O18" si="0">SUM(K2:K17)</f>
+        <f t="shared" ref="K18:O18" si="1">SUM(K2:K17)</f>
         <v>0</v>
       </c>
       <c r="L18" s="123">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M18" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N18" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O18" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P18" s="20">
@@ -1909,7 +1916,7 @@
       <c r="G19" s="63"/>
       <c r="H19" s="120">
         <f>SUM(B18:H18)</f>
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="I19" s="54"/>
       <c r="J19" s="54"/>
@@ -2172,27 +2179,27 @@
         <v>0</v>
       </c>
       <c r="C38" s="15">
-        <f t="shared" ref="C38:H38" si="1">SUM(C22:C37)</f>
+        <f t="shared" ref="C38:H38" si="2">SUM(C22:C37)</f>
         <v>0</v>
       </c>
       <c r="D38" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E38" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F38" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H38" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I38" s="3"/>

--- a/BlogUrenVerantwoordingTeam/BlogUrenVerantwoordingTeam.xlsx
+++ b/BlogUrenVerantwoordingTeam/BlogUrenVerantwoordingTeam.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgroothuis\Documents\GitHub\CeriosWebBlog\BlogUrenVerantwoordingTeam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsanders\Documents\GitHub\CeriosWebBlog\BlogUrenVerantwoordingTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Sprint 21-12-15" sheetId="4" r:id="rId3"/>
     <sheet name="Sprint 4-1-16" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
   <si>
     <t>Totaal</t>
   </si>
@@ -140,7 +143,10 @@
     <t>*Werkwijze pull &gt; openen invoeren opslaan sluiten &gt; push, sanctie 1 rondje...</t>
   </si>
   <si>
-    <t>Studie</t>
+    <t>Component, class en sequence diagram maken</t>
+  </si>
+  <si>
+    <t>Overig(mail, studie, etc)</t>
   </si>
 </sst>
 </file>
@@ -923,7 +929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1089,12 +1095,41 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFF00FF"/>
@@ -1377,7 +1412,7 @@
   <dimension ref="A1:AF45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1460,12 +1495,14 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B2" s="89"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
+      <c r="E2" s="43">
+        <v>1.5</v>
+      </c>
       <c r="F2" s="90"/>
       <c r="G2" s="57"/>
       <c r="H2" s="61"/>
@@ -1478,7 +1515,7 @@
       <c r="O2" s="133"/>
       <c r="P2" s="62">
         <f>SUM(B2:O2)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
@@ -1503,7 +1540,7 @@
       <c r="O3" s="134"/>
       <c r="P3" s="65">
         <f>SUM(B2:O2)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
@@ -1526,7 +1563,7 @@
       <c r="O4" s="134"/>
       <c r="P4" s="65">
         <f>SUM(B2:O2)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
@@ -1549,7 +1586,7 @@
       <c r="O5" s="134"/>
       <c r="P5" s="65">
         <f>SUM(B2:O2)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
@@ -1572,7 +1609,7 @@
       <c r="O6" s="134"/>
       <c r="P6" s="65">
         <f>SUM(B2:O2)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
@@ -1595,7 +1632,7 @@
       <c r="O7" s="134"/>
       <c r="P7" s="65">
         <f>SUM(B2:O2)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
@@ -1618,7 +1655,7 @@
       <c r="O8" s="134"/>
       <c r="P8" s="65">
         <f>SUM(B2:O2)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
@@ -1631,7 +1668,9 @@
       </c>
       <c r="D9" s="72"/>
       <c r="E9" s="72"/>
-      <c r="F9" s="92"/>
+      <c r="F9" s="44">
+        <v>0.25</v>
+      </c>
       <c r="G9" s="53"/>
       <c r="H9" s="64"/>
       <c r="I9" s="109"/>
@@ -1643,7 +1682,7 @@
       <c r="O9" s="134"/>
       <c r="P9" s="65">
         <f>SUM(B2:O2)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
@@ -1668,7 +1707,7 @@
       <c r="O10" s="134"/>
       <c r="P10" s="118">
         <f>SUM(B2:O2)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
@@ -1680,7 +1719,9 @@
         <v>1</v>
       </c>
       <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
+      <c r="E11" s="141">
+        <v>1</v>
+      </c>
       <c r="F11" s="116"/>
       <c r="G11" s="97"/>
       <c r="H11" s="115"/>
@@ -1693,7 +1734,7 @@
       <c r="O11" s="134"/>
       <c r="P11" s="118">
         <f>SUM(B2:O2)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
@@ -1716,7 +1757,7 @@
       <c r="O12" s="134"/>
       <c r="P12" s="118">
         <f>SUM(B2:O2)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
@@ -1728,7 +1769,9 @@
         <v>1</v>
       </c>
       <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
+      <c r="E13" s="48">
+        <v>1</v>
+      </c>
       <c r="F13" s="116"/>
       <c r="G13" s="97"/>
       <c r="H13" s="115"/>
@@ -1741,7 +1784,7 @@
       <c r="O13" s="134"/>
       <c r="P13" s="118">
         <f>SUM(B2:O2)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
@@ -1753,7 +1796,9 @@
         <v>1</v>
       </c>
       <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
+      <c r="E14" s="48">
+        <v>2</v>
+      </c>
       <c r="F14" s="116"/>
       <c r="G14" s="97"/>
       <c r="H14" s="115"/>
@@ -1766,7 +1811,7 @@
       <c r="O14" s="134"/>
       <c r="P14" s="118">
         <f>SUM(B2:O2)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
@@ -1811,19 +1856,19 @@
       <c r="O16" s="134"/>
       <c r="P16" s="118">
         <f>SUM(B2:O2)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="77"/>
       <c r="C17" s="78"/>
-      <c r="D17" s="35">
-        <v>8</v>
-      </c>
-      <c r="E17" s="78"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="44">
+        <v>1</v>
+      </c>
       <c r="F17" s="93"/>
       <c r="G17" s="12"/>
       <c r="H17" s="26"/>
@@ -1836,7 +1881,7 @@
       <c r="O17" s="135"/>
       <c r="P17" s="7">
         <f>SUM(B2:O2)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1853,15 +1898,15 @@
       </c>
       <c r="D18" s="123">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E18" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="F18" s="122">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G18" s="19">
         <f t="shared" si="0"/>
@@ -1916,7 +1961,7 @@
       <c r="G19" s="63"/>
       <c r="H19" s="120">
         <f>SUM(B18:H18)</f>
-        <v>19.5</v>
+        <v>18.25</v>
       </c>
       <c r="I19" s="54"/>
       <c r="J19" s="54"/>
